--- a/DP-Andres/archivos-dp/temp_gestion-reservas-dp.xlsx
+++ b/DP-Andres/archivos-dp/temp_gestion-reservas-dp.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,7 +522,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>usuario1</t>
+          <t>personal1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -531,11 +531,11 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>45590</v>
+        <v>45598</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -550,28 +550,28 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Encargado20</t>
+          <t>Encargado1</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>dpdelta20@gmail.com</t>
+          <t>dpdelta1@gmail.com</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Occidente</t>
+          <t>Norte</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Cra 13 No. 136 - 71</t>
+          <t>cra 13 No. 13 71</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>f8984fc3-e574-49f5-951f-ebfc40f5bc9e</t>
+          <t>d031576f-5894-43ba-860d-44121bf49ee1</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -581,20 +581,24 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>573205511091</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>web.whatsapp.com/send?phone=&amp;text= Sr(a). usuario1 La Resserva se realizo con exito para el dia: 2024-10-25 a las: 11:00 con el encargado: Encargado20 para el servicio de : Hacia el Aeropuerto</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr"/>
+          <t>web.whatsapp.com/send?phone=&amp;text= Sr(a). personal1 La Resserva se realizo con exito para el dia: 2024-11-02 a las: 18:00 con el encargado: Encargado1 para el servicio de : Hacia el Aeropuerto</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Enviar</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>usuario1</t>
+          <t>personal3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -603,36 +607,36 @@
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>45590</v>
+        <v>45598</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Hacia el Aeropuerto</t>
+          <t xml:space="preserve">Desde el Aeropuerto </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>35.000</t>
+          <t>30.000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Encargado20</t>
+          <t>Encargado4</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>dpdelta20@gmail.com</t>
+          <t>dpdelta4@gmail.com</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Occidente</t>
+          <t>Norte</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -643,7 +647,7 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>4f60e18b-42a8-44b9-b9e2-ab8c3879a581</t>
+          <t>cc6a8cef-8c55-4e22-a0c5-feeae12c0dad</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -653,33 +657,37 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>573205200000</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>web.whatsapp.com/send?phone=&amp;text= Sr(a). usuario1 La Resserva se realizo con exito para el dia: 2024-10-25 a las: 12:00 con el encargado: Encargado20 para el servicio de : Hacia el Aeropuerto</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr"/>
+          <t xml:space="preserve">web.whatsapp.com/send?phone=&amp;text= Sr(a). personal3 La Resserva se realizo con exito para el dia: 2024-11-02 a las: 18:00 con el encargado: Encargado4 para el servicio de : Desde el Aeropuerto </t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Enviar</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>usuario1</t>
+          <t>Personal1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>josegarjagt@gmail.com</t>
+          <t>josea_garciat@hotmail.com</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>45593</v>
+        <v>45600</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -694,17 +702,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Encargado2</t>
+          <t>Encargado20</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>dpdelta2@gmail.com</t>
+          <t>dpdelta20@gmail.com</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Norte</t>
+          <t>Occidente</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -715,7 +723,7 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>71aa3a6b-78d5-488f-85e4-3721ed53b678</t>
+          <t>fb9a793e-8dff-4f38-b741-d8a02106e161</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -730,7 +738,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>web.whatsapp.com/send?phone=&amp;text= Sr(a). usuario1 La Resserva se realizo con exito para el dia: 2024-10-28 a las: 10:00 con el encargado: Encargado2 para el servicio de : Hacia el Aeropuerto</t>
+          <t>web.whatsapp.com/send?phone=&amp;text= Sr(a). Personal1 La Resserva se realizo con exito para el dia: 2024-11-04 a las: 11:00 con el encargado: Encargado20 para el servicio de : Hacia el Aeropuerto</t>
         </is>
       </c>
       <c r="P4" t="inlineStr"/>
@@ -738,7 +746,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>usuario1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -747,11 +755,11 @@
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>45594</v>
+        <v>45602</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -766,17 +774,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Encargado20</t>
+          <t>Encargado6</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>dpdelta20@gmail.com</t>
+          <t>dpdelta6@gmail.com</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Occidente</t>
+          <t>Sur</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -787,7 +795,7 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>acc81f2b-86c2-4dfa-9a63-66025f90e557</t>
+          <t>4bb39d5e-76cc-4d72-9ef6-be49654fffa6</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -797,15 +805,83 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
+          <t>573205200000</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>web.whatsapp.com/send?phone=&amp;text= Sr(a). usuario1 La Resserva se realizo con exito para el dia: 2024-11-06 a las: 09:00 con el encargado: Encargado6 para el servicio de : Hacia el Aeropuerto</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>usuario2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>josea_garciat@hotmail.com</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>45603</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Hacia el Aeropuerto</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>35.000</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Encargado16</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>dpdelta16@gmail.com</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Oriente</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>3f580f90-c1eb-47ec-afe6-5f4aad1cbdbc</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
           <t>573205511091</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>web.whatsapp.com/send?phone=&amp;text= Sr(a). admin La Resserva se realizo con exito para el dia: 2024-10-29 a las: 18:00 con el encargado: Encargado20 para el servicio de : Hacia el Aeropuerto</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>web.whatsapp.com/send?phone=&amp;text= Sr(a). usuario2 La Resserva se realizo con exito para el dia: 2024-11-07 a las: 09:00 con el encargado: Encargado16 para el servicio de : Hacia el Aeropuerto</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DP-Andres/archivos-dp/temp_gestion-reservas-dp.xlsx
+++ b/DP-Andres/archivos-dp/temp_gestion-reservas-dp.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,7 +522,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>personal1</t>
+          <t>Myriam May</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -531,11 +531,11 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>45598</v>
+        <v>45639</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -563,15 +563,11 @@
           <t>Norte</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>cra 13 No. 13 71</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>d031576f-5894-43ba-860d-44121bf49ee1</t>
+          <t>ddf89518-1fa5-4e05-badb-ccc9e03a6023</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -581,12 +577,12 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>573205511091</t>
+          <t>57</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>web.whatsapp.com/send?phone=&amp;text= Sr(a). personal1 La Resserva se realizo con exito para el dia: 2024-11-02 a las: 18:00 con el encargado: Encargado1 para el servicio de : Hacia el Aeropuerto</t>
+          <t>web.whatsapp.com/send?phone=&amp;text= Sr(a). Myriam May La Resserva se realizo con exito para el dia: 2024-12-13 a las: 15:00 con el encargado: Encargado1 para el servicio de : Hacia el Aeropuerto</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -598,7 +594,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>personal3</t>
+          <t>usuario1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -607,31 +603,31 @@
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>45598</v>
+        <v>45640</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Desde el Aeropuerto </t>
+          <t>Hacia el Aeropuerto</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>30.000</t>
+          <t>35.000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Encargado4</t>
+          <t>Encargado3</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>dpdelta4@gmail.com</t>
+          <t>dpdelta3@gmail.com</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -647,7 +643,7 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>cc6a8cef-8c55-4e22-a0c5-feeae12c0dad</t>
+          <t>28b40f78-b9df-4ca0-968c-2c0cea60ef7f</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -657,24 +653,23 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>573205200000</t>
+          <t>573205511091</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t xml:space="preserve">web.whatsapp.com/send?phone=&amp;text= Sr(a). personal3 La Resserva se realizo con exito para el dia: 2024-11-02 a las: 18:00 con el encargado: Encargado4 para el servicio de : Desde el Aeropuerto </t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Enviar</t>
-        </is>
+          <t>web.whatsapp.com/send?phone=&amp;text= Sr(a). usuario1 La Resserva se realizo con exito para el dia: 2024-12-14 a las: 11:00 con el encargado: Encargado3 para el servicio de : Hacia el Aeropuerto</t>
+        </is>
+      </c>
+      <c r="P3">
+        <f>ArrayFormula(SI(M3=VERDADERO;HIPERVINCULO(O3;"Enviar");"No Enviar"))</f>
+        <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Personal1</t>
+          <t>usuario2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -683,11 +678,11 @@
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>45600</v>
+        <v>45641</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -702,17 +697,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Encargado20</t>
+          <t>Encargado6</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>dpdelta20@gmail.com</t>
+          <t>dpdelta6@gmail.com</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Occidente</t>
+          <t>Sur</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -723,7 +718,7 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>fb9a793e-8dff-4f38-b741-d8a02106e161</t>
+          <t>f2d06517-d0e4-4217-9755-e7220accbf51</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -738,150 +733,13 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>web.whatsapp.com/send?phone=&amp;text= Sr(a). Personal1 La Resserva se realizo con exito para el dia: 2024-11-04 a las: 11:00 con el encargado: Encargado20 para el servicio de : Hacia el Aeropuerto</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>usuario1</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>josea_garciat@hotmail.com</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>45602</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Hacia el Aeropuerto</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>35.000</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Encargado6</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>dpdelta6@gmail.com</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Sur</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Cra 13 No. 136 - 71</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>4bb39d5e-76cc-4d72-9ef6-be49654fffa6</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>573205200000</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>web.whatsapp.com/send?phone=&amp;text= Sr(a). usuario1 La Resserva se realizo con exito para el dia: 2024-11-06 a las: 09:00 con el encargado: Encargado6 para el servicio de : Hacia el Aeropuerto</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>usuario2</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>josea_garciat@hotmail.com</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>45603</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Hacia el Aeropuerto</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>35.000</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Encargado16</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>dpdelta16@gmail.com</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Oriente</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>3f580f90-c1eb-47ec-afe6-5f4aad1cbdbc</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>573205511091</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>web.whatsapp.com/send?phone=&amp;text= Sr(a). usuario2 La Resserva se realizo con exito para el dia: 2024-11-07 a las: 09:00 con el encargado: Encargado16 para el servicio de : Hacia el Aeropuerto</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr"/>
+          <t>web.whatsapp.com/send?phone=&amp;text= Sr(a). usuario2 La Resserva se realizo con exito para el dia: 2024-12-15 a las: 09:00 con el encargado: Encargado6 para el servicio de : Hacia el Aeropuerto</t>
+        </is>
+      </c>
+      <c r="P4">
+        <f>ArrayFormula(SI(M3=VERDADERO;HIPERVINCULO(O3;"Enviar");"No Enviar"))</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DP-Andres/archivos-dp/temp_gestion-reservas-dp.xlsx
+++ b/DP-Andres/archivos-dp/temp_gestion-reservas-dp.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,11 +603,11 @@
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>45640</v>
+        <v>45641</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -658,7 +658,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>web.whatsapp.com/send?phone=&amp;text= Sr(a). usuario1 La Resserva se realizo con exito para el dia: 2024-12-14 a las: 11:00 con el encargado: Encargado3 para el servicio de : Hacia el Aeropuerto</t>
+          <t>web.whatsapp.com/send?phone=&amp;text= Sr(a). usuario1 La Resserva se realizo con exito para el dia: 2024-12-15 a las: 14:00 con el encargado: Encargado3 para el servicio de : Hacia el Aeropuerto</t>
         </is>
       </c>
       <c r="P3">
@@ -737,6 +737,156 @@
         </is>
       </c>
       <c r="P4">
+        <f>ArrayFormula(SI(M3=VERDADERO;HIPERVINCULO(O3;"Enviar");"No Enviar"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>josea_garciat@hotmail.com</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Hacia el Aeropuerto</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>35.000</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Encargado22</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>dpdelta22@gmail.com</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Occidente</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Carrera 14 No. 96-34</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>fd33fd50-92a6-4516-8d51-2226c3712130</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>573205511091</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>web.whatsapp.com/send?phone=&amp;text= Sr(a). personal La Resserva se realizo con exito para el dia: 2024-12-16 a las: 17:00 con el encargado: Encargado22 para el servicio de : Hacia el Aeropuerto</t>
+        </is>
+      </c>
+      <c r="P5">
+        <f>ArrayFormula(SI(M3=VERDADERO;HIPERVINCULO(O3;"Enviar");"No Enviar"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Myriam May </t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>myriammay9@hotmail.com</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>45644</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Hacia el Aeropuerto</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>35.000</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Encargado1</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>dpdelta1@gmail.com</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Cra 13 n 136 -71</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>8d84263d-3f78-457f-adc0-cfcd3c054996</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>573115774797</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>web.whatsapp.com/send?phone=&amp;text= Sr(a). Myriam May  La Resserva se realizo con exito para el dia: 2024-12-18 a las: 08:00 con el encargado: Encargado1 para el servicio de : Hacia el Aeropuerto</t>
+        </is>
+      </c>
+      <c r="P6">
         <f>ArrayFormula(SI(M3=VERDADERO;HIPERVINCULO(O3;"Enviar");"No Enviar"))</f>
         <v/>
       </c>

--- a/DP-Andres/archivos-dp/temp_gestion-reservas-dp.xlsx
+++ b/DP-Andres/archivos-dp/temp_gestion-reservas-dp.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,20 +522,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Myriam May</t>
+          <t xml:space="preserve">Juan Gaviria </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>josea_garciat@hotmail.com</t>
+          <t>Juangaviriah@hotmail.com</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>45639</v>
+        <v>45658</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -563,11 +563,15 @@
           <t>Norte</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Carrera 13 No 136 - 71</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>ddf89518-1fa5-4e05-badb-ccc9e03a6023</t>
+          <t>dd65f5cf-5e8a-4849-90cd-6e6da35d9a78</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -577,37 +581,36 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>573108671571</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>web.whatsapp.com/send?phone=&amp;text= Sr(a). Myriam May La Resserva se realizo con exito para el dia: 2024-12-13 a las: 15:00 con el encargado: Encargado1 para el servicio de : Hacia el Aeropuerto</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Enviar</t>
-        </is>
+          <t>web.whatsapp.com/send?phone=&amp;text= Sr(a). Juan Gaviria  La Resserva se realizo con exito para el dia: 2025-01-01 a las: 05:00 con el encargado: Encargado1 para el servicio de : Hacia el Aeropuerto</t>
+        </is>
+      </c>
+      <c r="P2">
+        <f>ArrayFormula(SI(M3=VERDADERO;HIPERVINCULO(O3;"Enviar");"No Enviar"))</f>
+        <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>usuario1</t>
+          <t xml:space="preserve">Andres Gaviria </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>josea_garciat@hotmail.com</t>
+          <t>andresmusic78@gmail.com</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>45641</v>
+        <v>45657</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -637,13 +640,13 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Cra 13 No. 136 - 71</t>
+          <t>Carrera 14 No. 96-34</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>28b40f78-b9df-4ca0-968c-2c0cea60ef7f</t>
+          <t>51769d23-4466-47c9-a319-ad51732efadf</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -653,240 +656,15 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>573205511091</t>
+          <t>573104807763</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>web.whatsapp.com/send?phone=&amp;text= Sr(a). usuario1 La Resserva se realizo con exito para el dia: 2024-12-15 a las: 14:00 con el encargado: Encargado3 para el servicio de : Hacia el Aeropuerto</t>
+          <t>web.whatsapp.com/send?phone=&amp;text= Sr(a). Andres Gaviria  La Resserva se realizo con exito para el dia: 2024-12-31 a las: 09:00 con el encargado: Encargado3 para el servicio de : Hacia el Aeropuerto</t>
         </is>
       </c>
       <c r="P3">
-        <f>ArrayFormula(SI(M3=VERDADERO;HIPERVINCULO(O3;"Enviar");"No Enviar"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>usuario2</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>josea_garciat@hotmail.com</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>45641</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Hacia el Aeropuerto</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>35.000</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Encargado6</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>dpdelta6@gmail.com</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Sur</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Cra 13 No. 136 - 71</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>f2d06517-d0e4-4217-9755-e7220accbf51</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>573205511091</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>web.whatsapp.com/send?phone=&amp;text= Sr(a). usuario2 La Resserva se realizo con exito para el dia: 2024-12-15 a las: 09:00 con el encargado: Encargado6 para el servicio de : Hacia el Aeropuerto</t>
-        </is>
-      </c>
-      <c r="P4">
-        <f>ArrayFormula(SI(M3=VERDADERO;HIPERVINCULO(O3;"Enviar");"No Enviar"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>personal</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>josea_garciat@hotmail.com</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Hacia el Aeropuerto</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>35.000</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Encargado22</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>dpdelta22@gmail.com</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Occidente</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Carrera 14 No. 96-34</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>fd33fd50-92a6-4516-8d51-2226c3712130</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>573205511091</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>web.whatsapp.com/send?phone=&amp;text= Sr(a). personal La Resserva se realizo con exito para el dia: 2024-12-16 a las: 17:00 con el encargado: Encargado22 para el servicio de : Hacia el Aeropuerto</t>
-        </is>
-      </c>
-      <c r="P5">
-        <f>ArrayFormula(SI(M3=VERDADERO;HIPERVINCULO(O3;"Enviar");"No Enviar"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Myriam May </t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>myriammay9@hotmail.com</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>45644</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>08:00</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Hacia el Aeropuerto</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>35.000</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Encargado1</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>dpdelta1@gmail.com</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Norte</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Cra 13 n 136 -71</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>8d84263d-3f78-457f-adc0-cfcd3c054996</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>573115774797</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>web.whatsapp.com/send?phone=&amp;text= Sr(a). Myriam May  La Resserva se realizo con exito para el dia: 2024-12-18 a las: 08:00 con el encargado: Encargado1 para el servicio de : Hacia el Aeropuerto</t>
-        </is>
-      </c>
-      <c r="P6">
         <f>ArrayFormula(SI(M3=VERDADERO;HIPERVINCULO(O3;"Enviar");"No Enviar"))</f>
         <v/>
       </c>
